--- a/Analysis_NB/R/AmputeeDemographic.xlsx
+++ b/Analysis_NB/R/AmputeeDemographic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="24300" yWindow="7780" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
   <si>
     <t>subnum</t>
   </si>
@@ -193,6 +193,111 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>#R</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>141215QH710921</t>
+  </si>
+  <si>
+    <t>141216KB480305</t>
+  </si>
+  <si>
+    <t>150106HR591025</t>
+  </si>
+  <si>
+    <t>150108YJ680319</t>
+  </si>
+  <si>
+    <t>150115IH830822</t>
+  </si>
+  <si>
+    <t>150126YK810104</t>
+  </si>
+  <si>
+    <t>150130YF740414</t>
+  </si>
+  <si>
+    <t>150202QZ730327</t>
+  </si>
+  <si>
+    <t>150205PN441204</t>
+  </si>
+  <si>
+    <t>150209HU741202</t>
+  </si>
+  <si>
+    <t>150210YI810410</t>
+  </si>
+  <si>
+    <t>150223AR741205</t>
   </si>
 </sst>
 </file>
@@ -653,754 +758,886 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="1" max="3" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1">
+    <row r="1" spans="1:11" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41734</v>
+      </c>
+      <c r="G2" s="1">
+        <v>28171</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2">
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F3" s="1">
         <v>41662</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G3" s="1">
         <v>26620</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3">
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
         <v>62</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="1">
         <v>41666</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4" s="1">
         <v>19007</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4">
+      <c r="B5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="1">
         <v>41669</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G5" s="1">
         <v>24495</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5">
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="1">
         <v>41703</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G6" s="1">
         <v>20300</v>
       </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6">
+      <c r="B7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="1">
         <v>41703</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="1">
         <v>20300</v>
       </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
         <v>38</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7">
+      <c r="B8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8">
         <v>67</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>41717</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>17120</v>
       </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8">
+      <c r="B9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>41712</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>30366</v>
       </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9">
+      <c r="B10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>41717</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>19169</v>
       </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
         <v>36</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J10" t="s">
         <v>40</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10">
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F11" s="1">
         <v>41719</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G11" s="1">
         <v>23460</v>
       </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
         <v>38</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11">
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F12" s="1">
         <v>41730</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G12" s="1">
         <v>26041</v>
       </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="1">
-        <v>41734</v>
-      </c>
-      <c r="F12" s="1">
-        <v>28171</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13">
+        <v>69</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>41737</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>21320</v>
       </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
       <c r="H13" t="s">
         <v>7</v>
       </c>
       <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
         <v>11</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>41750</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>22512</v>
       </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
       <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>38</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15">
+        <v>71</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>41755</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>24323</v>
       </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
       <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
         <v>36</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>38</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>41758</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>18282</v>
       </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
       <c r="H16" t="s">
         <v>7</v>
       </c>
       <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
         <v>11</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17">
+        <v>73</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>41760</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>34438</v>
       </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
       <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>38</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18">
+        <v>74</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>41766</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>27619</v>
       </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
       <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>38</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19">
+        <v>75</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
         <v>56</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>41779</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>21079</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
       </c>
       <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
         <v>11</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20">
+        <v>76</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
         <v>29</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>41781</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>31085</v>
       </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
       <c r="H20" t="s">
         <v>7</v>
       </c>
       <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
         <v>38</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21">
+        <v>78</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>41787</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>10472</v>
       </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
       <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
         <v>10</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>38</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22">
+        <v>79</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>41792</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>18022</v>
       </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
       <c r="H22" t="s">
         <v>7</v>
       </c>
       <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
         <v>38</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23">
+        <v>80</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>41795</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>25932</v>
       </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
       <c r="H23" t="s">
         <v>7</v>
       </c>
       <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
         <v>11</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:K23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Analysis_NB/R/AmputeeDemographic.xlsx
+++ b/Analysis_NB/R/AmputeeDemographic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4280" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1480,7 +1480,7 @@
         <v>55</v>
       </c>
       <c r="D21">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -1489,7 +1489,7 @@
         <v>41787</v>
       </c>
       <c r="G21" s="1">
-        <v>10472</v>
+        <v>21578</v>
       </c>
       <c r="H21" t="s">
         <v>7</v>
